--- a/FASE 2/EVIDENCIAS PROYECTO/Evidencias de documentación/Product BackLog Priorización.xlsx
+++ b/FASE 2/EVIDENCIAS PROYECTO/Evidencias de documentación/Product BackLog Priorización.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>Identificador (ID) de la Historia</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Puntaje Total (estimación)</t>
+  </si>
+  <si>
+    <t>H-1</t>
   </si>
   <si>
     <t xml:space="preserve">Necesito poder ver ubicación en tiempo real para 
@@ -45,6 +48,9 @@
     <t>Bajo</t>
   </si>
   <si>
+    <t>H-2</t>
+  </si>
+  <si>
     <t>Necesito poder ver la disponibilidad de 
 asientos  para poder tomar el colectivo</t>
   </si>
@@ -61,7 +67,13 @@
     <t>Alto</t>
   </si>
   <si>
+    <t>H-3</t>
+  </si>
+  <si>
     <t>Necesito poder pagar con tarjeta a través de la app.</t>
+  </si>
+  <si>
+    <t>H-4</t>
   </si>
   <si>
     <t xml:space="preserve">Necesito poder recibir una notificación
@@ -69,69 +81,180 @@
 </t>
   </si>
   <si>
+    <t>H-5</t>
+  </si>
+  <si>
     <t>Necesito poder ver la ubicación en 
 tiempo real para saber cuanto tiempo 
 de espera tengo aproximadamente</t>
   </si>
   <si>
+    <t>H-6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Necesito poder recibir notificación de 
 no disponibilidad de asientos en caso 
 de que este se utilice antes </t>
   </si>
   <si>
+    <t>H-7</t>
+  </si>
+  <si>
     <t>Necesito poder ver rutas alternativas 
 en caso de colectivos llenos</t>
   </si>
   <si>
+    <t>H-8</t>
+  </si>
+  <si>
     <t>Necesito poder monitorear el estado 
 de los colectivos en tiempo real</t>
   </si>
   <si>
+    <t>H-9</t>
+  </si>
+  <si>
     <t>Necesito poder monitorear las 
 transacciones de pago</t>
   </si>
   <si>
+    <t>H-10</t>
+  </si>
+  <si>
     <t>Necesito poder gestionar información 
 de los vehículos</t>
   </si>
   <si>
+    <t>H-11</t>
+  </si>
+  <si>
     <t>Necesito poder cuantas transacciones obtuve en el dia-mes-anual.</t>
   </si>
   <si>
+    <t>H-12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Necesito poder ver todas la transacciones de los choferes </t>
   </si>
   <si>
+    <t>H-13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Necesito poder modificar las calles  de cada ruta </t>
   </si>
   <si>
+    <t>H-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">Necesito poder agregar o modificar los datos de un chofer </t>
   </si>
   <si>
+    <t>H-15</t>
+  </si>
+  <si>
     <t>Necesito poder asignar un vehiculo a un chofer</t>
   </si>
   <si>
+    <t>H-16</t>
+  </si>
+  <si>
     <t>Necesito ver que choferes estan activos y cuales no</t>
   </si>
   <si>
+    <t>H-17</t>
+  </si>
+  <si>
     <t>Necesito poder modificar la tarifa</t>
   </si>
   <si>
+    <t>H-18</t>
+  </si>
+  <si>
     <t>Necesito ver la ruta en el mapa</t>
   </si>
   <si>
+    <t>H-19</t>
+  </si>
+  <si>
     <t>Necesito poder marcar los asientos</t>
   </si>
   <si>
+    <t>H-20</t>
+  </si>
+  <si>
+    <t>Necesito poder generar revisar mis transacciones de kipu</t>
+  </si>
+  <si>
+    <t>Puntajes Utilizados (100 max.)</t>
+  </si>
+  <si>
+    <t>Puntaje Total (Valorización)</t>
+  </si>
+  <si>
+    <t>Valorización (Planning Poker)</t>
+  </si>
+  <si>
+    <t>E02-H-18</t>
+  </si>
+  <si>
+    <t>E03-H-3</t>
+  </si>
+  <si>
+    <t>E01-H-5</t>
+  </si>
+  <si>
+    <t>E04-H-7</t>
+  </si>
+  <si>
+    <t>E04-H-8</t>
+  </si>
+  <si>
+    <t>E01-H-13</t>
+  </si>
+  <si>
+    <t>E03-H-6</t>
+  </si>
+  <si>
+    <t>E03-H-11</t>
+  </si>
+  <si>
+    <t>E01-H-9</t>
+  </si>
+  <si>
+    <t>E04-H-20</t>
+  </si>
+  <si>
     <t>Necesito poder generar mi codigo dinamico</t>
   </si>
   <si>
-    <t>Puntajes Utilizados (100 max.)</t>
-  </si>
-  <si>
-    <t>Puntaje Total (Valorización)</t>
-  </si>
-  <si>
-    <t>Valorización (Planning Poker)</t>
+    <t>E04-H-16</t>
+  </si>
+  <si>
+    <t>E02-H-10</t>
+  </si>
+  <si>
+    <t>E04-H-12</t>
+  </si>
+  <si>
+    <t>E01-H-17</t>
+  </si>
+  <si>
+    <t>E01-H-1</t>
+  </si>
+  <si>
+    <t>E02-H-14</t>
+  </si>
+  <si>
+    <t>E03-H-19</t>
+  </si>
+  <si>
+    <t>E02-H-2</t>
+  </si>
+  <si>
+    <t>E03-H-15</t>
+  </si>
+  <si>
+    <t>E02-H-4</t>
   </si>
 </sst>
 </file>
@@ -355,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -443,6 +566,9 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -732,11 +858,11 @@
       </c>
     </row>
     <row r="2" ht="35.25" customHeight="1">
-      <c r="A2" s="3">
-        <v>1.0</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>5.0</v>
@@ -752,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="8"/>
     </row>
@@ -774,18 +900,18 @@
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="I4" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
-        <v>2.0</v>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5">
         <v>4.0</v>
@@ -801,10 +927,10 @@
         <v>11</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -815,10 +941,10 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="I6" s="20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -830,11 +956,11 @@
       <c r="F7" s="15"/>
     </row>
     <row r="8">
-      <c r="A8" s="3">
-        <v>3.0</v>
+      <c r="A8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <v>7.0</v>
@@ -867,11 +993,11 @@
       <c r="F10" s="15"/>
     </row>
     <row r="11" ht="24.0" customHeight="1">
-      <c r="A11" s="3">
-        <v>4.0</v>
+      <c r="A11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5">
         <v>2.0</v>
@@ -904,11 +1030,11 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" ht="34.5" customHeight="1">
-      <c r="A14" s="3">
-        <v>5.0</v>
+      <c r="A14" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5">
         <v>7.0</v>
@@ -941,11 +1067,11 @@
       <c r="F16" s="15"/>
     </row>
     <row r="17" ht="30.0" customHeight="1">
-      <c r="A17" s="3">
-        <v>6.0</v>
+      <c r="A17" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C17" s="25">
         <v>5.0</v>
@@ -978,11 +1104,11 @@
       <c r="F19" s="15"/>
     </row>
     <row r="20">
-      <c r="A20" s="3">
-        <v>7.0</v>
+      <c r="A20" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5">
         <v>7.0</v>
@@ -1015,11 +1141,11 @@
       <c r="F22" s="15"/>
     </row>
     <row r="23">
-      <c r="A23" s="3">
-        <v>8.0</v>
+      <c r="A23" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C23" s="25">
         <v>6.0</v>
@@ -1052,11 +1178,11 @@
       <c r="F25" s="15"/>
     </row>
     <row r="26">
-      <c r="A26" s="3">
-        <v>9.0</v>
+      <c r="A26" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C26" s="5">
         <v>5.0</v>
@@ -1089,11 +1215,11 @@
       <c r="F28" s="15"/>
     </row>
     <row r="29">
-      <c r="A29" s="3">
-        <v>10.0</v>
+      <c r="A29" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C29" s="25">
         <v>4.0</v>
@@ -1126,11 +1252,11 @@
       <c r="F31" s="15"/>
     </row>
     <row r="32">
-      <c r="A32" s="3">
-        <v>11.0</v>
+      <c r="A32" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C32" s="5">
         <v>5.0</v>
@@ -1163,11 +1289,11 @@
       <c r="F34" s="15"/>
     </row>
     <row r="35" ht="23.25" customHeight="1">
-      <c r="A35" s="3">
-        <v>12.0</v>
+      <c r="A35" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C35" s="5">
         <v>4.0</v>
@@ -1200,11 +1326,11 @@
       <c r="F37" s="15"/>
     </row>
     <row r="38">
-      <c r="A38" s="3">
-        <v>13.0</v>
+      <c r="A38" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C38" s="25">
         <v>6.0</v>
@@ -1237,11 +1363,11 @@
       <c r="F40" s="15"/>
     </row>
     <row r="41">
-      <c r="A41" s="3">
-        <v>14.0</v>
+      <c r="A41" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C41" s="5">
         <v>4.0</v>
@@ -1275,11 +1401,11 @@
       <c r="G43" s="29"/>
     </row>
     <row r="44">
-      <c r="A44" s="3">
-        <v>15.0</v>
+      <c r="A44" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C44" s="25">
         <v>3.0</v>
@@ -1312,11 +1438,11 @@
       <c r="F46" s="15"/>
     </row>
     <row r="47">
-      <c r="A47" s="3">
-        <v>16.0</v>
+      <c r="A47" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C47" s="5">
         <v>5.0</v>
@@ -1349,11 +1475,11 @@
       <c r="F49" s="15"/>
     </row>
     <row r="50">
-      <c r="A50" s="3">
-        <v>17.0</v>
+      <c r="A50" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C50" s="25">
         <v>4.0</v>
@@ -1386,11 +1512,11 @@
       <c r="F52" s="15"/>
     </row>
     <row r="53">
-      <c r="A53" s="3">
-        <v>18.0</v>
+      <c r="A53" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C53" s="5">
         <v>8.0</v>
@@ -1423,11 +1549,11 @@
       <c r="F55" s="15"/>
     </row>
     <row r="56">
-      <c r="A56" s="3">
-        <v>19.0</v>
+      <c r="A56" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C56" s="25">
         <v>4.0</v>
@@ -1460,11 +1586,11 @@
       <c r="F58" s="15"/>
     </row>
     <row r="59">
-      <c r="A59" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>32</v>
+      <c r="A59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="C59" s="5">
         <v>5.0</v>
@@ -1497,50 +1623,50 @@
       <c r="F61" s="15"/>
     </row>
     <row r="62">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="34">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="35">
         <f t="shared" ref="C63:E63" si="1">SUM(C2:C61)</f>
         <v>100</v>
       </c>
-      <c r="D63" s="34">
+      <c r="D63" s="35">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="35">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
     </row>
     <row r="65">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
     </row>
     <row r="66">
-      <c r="A66" s="33"/>
+      <c r="A66" s="34"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -1550,27 +1676,27 @@
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="37" t="s">
-        <v>34</v>
+      <c r="C76" s="38" t="s">
+        <v>54</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3">
-        <v>18.0</v>
+      <c r="A77" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="38">
+        <v>48</v>
+      </c>
+      <c r="C77" s="39">
         <v>24.0</v>
       </c>
-      <c r="D77" s="39">
+      <c r="D77" s="40">
         <v>8.0</v>
       </c>
     </row>
@@ -1581,16 +1707,16 @@
       <c r="D78" s="9"/>
     </row>
     <row r="79">
-      <c r="A79" s="3">
-        <v>3.0</v>
+      <c r="A79" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="38">
+        <v>18</v>
+      </c>
+      <c r="C79" s="39">
         <v>22.0</v>
       </c>
-      <c r="D79" s="39">
+      <c r="D79" s="40">
         <v>13.0</v>
       </c>
     </row>
@@ -1601,16 +1727,16 @@
       <c r="D80" s="9"/>
     </row>
     <row r="81">
-      <c r="A81" s="3">
-        <v>5.0</v>
+      <c r="A81" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="38">
+        <v>22</v>
+      </c>
+      <c r="C81" s="39">
         <v>20.0</v>
       </c>
-      <c r="D81" s="39">
+      <c r="D81" s="40">
         <v>5.0</v>
       </c>
     </row>
@@ -1621,16 +1747,16 @@
       <c r="D82" s="9"/>
     </row>
     <row r="83">
-      <c r="A83" s="3">
-        <v>7.0</v>
+      <c r="A83" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="38">
+        <v>26</v>
+      </c>
+      <c r="C83" s="39">
         <v>20.0</v>
       </c>
-      <c r="D83" s="39">
+      <c r="D83" s="40">
         <v>3.0</v>
       </c>
     </row>
@@ -1641,16 +1767,16 @@
       <c r="D84" s="9"/>
     </row>
     <row r="85">
-      <c r="A85" s="3">
-        <v>8.0</v>
+      <c r="A85" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" s="40">
+        <v>28</v>
+      </c>
+      <c r="C85" s="41">
         <v>18.0</v>
       </c>
-      <c r="D85" s="41">
+      <c r="D85" s="42">
         <v>8.0</v>
       </c>
     </row>
@@ -1661,16 +1787,16 @@
       <c r="D86" s="9"/>
     </row>
     <row r="87">
-      <c r="A87" s="3">
-        <v>13.0</v>
+      <c r="A87" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="40">
+        <v>38</v>
+      </c>
+      <c r="C87" s="41">
         <v>18.0</v>
       </c>
-      <c r="D87" s="41">
+      <c r="D87" s="42">
         <v>5.0</v>
       </c>
     </row>
@@ -1681,16 +1807,16 @@
       <c r="D88" s="9"/>
     </row>
     <row r="89">
-      <c r="A89" s="3">
-        <v>6.0</v>
+      <c r="A89" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="40">
+        <v>24</v>
+      </c>
+      <c r="C89" s="41">
         <v>16.0</v>
       </c>
-      <c r="D89" s="41">
+      <c r="D89" s="42">
         <v>8.0</v>
       </c>
     </row>
@@ -1701,16 +1827,16 @@
       <c r="D90" s="9"/>
     </row>
     <row r="91">
-      <c r="A91" s="3">
-        <v>11.0</v>
+      <c r="A91" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" s="40">
+        <v>34</v>
+      </c>
+      <c r="C91" s="41">
         <v>16.0</v>
       </c>
-      <c r="D91" s="41">
+      <c r="D91" s="42">
         <v>3.0</v>
       </c>
     </row>
@@ -1721,16 +1847,16 @@
       <c r="D92" s="9"/>
     </row>
     <row r="93">
-      <c r="A93" s="3">
-        <v>9.0</v>
+      <c r="A93" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="40">
+        <v>30</v>
+      </c>
+      <c r="C93" s="41">
         <v>15.0</v>
       </c>
-      <c r="D93" s="41">
+      <c r="D93" s="42">
         <v>5.0</v>
       </c>
     </row>
@@ -1741,16 +1867,16 @@
       <c r="D94" s="9"/>
     </row>
     <row r="95">
-      <c r="A95" s="3">
-        <v>20.0</v>
+      <c r="A95" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C95" s="40">
+        <v>66</v>
+      </c>
+      <c r="C95" s="41">
         <v>15.0</v>
       </c>
-      <c r="D95" s="41">
+      <c r="D95" s="42">
         <v>5.0</v>
       </c>
     </row>
@@ -1761,16 +1887,16 @@
       <c r="D96" s="9"/>
     </row>
     <row r="97">
-      <c r="A97" s="3">
-        <v>16.0</v>
+      <c r="A97" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="40">
+        <v>44</v>
+      </c>
+      <c r="C97" s="41">
         <v>14.0</v>
       </c>
-      <c r="D97" s="41">
+      <c r="D97" s="42">
         <v>3.0</v>
       </c>
     </row>
@@ -1781,16 +1907,16 @@
       <c r="D98" s="9"/>
     </row>
     <row r="99">
-      <c r="A99" s="3">
-        <v>10.0</v>
+      <c r="A99" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" s="40">
+        <v>32</v>
+      </c>
+      <c r="C99" s="41">
         <v>13.0</v>
       </c>
-      <c r="D99" s="41">
+      <c r="D99" s="42">
         <v>5.0</v>
       </c>
     </row>
@@ -1801,16 +1927,16 @@
       <c r="D100" s="9"/>
     </row>
     <row r="101">
-      <c r="A101" s="3">
-        <v>12.0</v>
+      <c r="A101" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C101" s="40">
+        <v>36</v>
+      </c>
+      <c r="C101" s="41">
         <v>13.0</v>
       </c>
-      <c r="D101" s="41">
+      <c r="D101" s="42">
         <v>3.0</v>
       </c>
     </row>
@@ -1821,16 +1947,16 @@
       <c r="D102" s="9"/>
     </row>
     <row r="103">
-      <c r="A103" s="3">
-        <v>17.0</v>
+      <c r="A103" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C103" s="40">
+        <v>46</v>
+      </c>
+      <c r="C103" s="41">
         <v>13.0</v>
       </c>
-      <c r="D103" s="41">
+      <c r="D103" s="42">
         <v>5.0</v>
       </c>
     </row>
@@ -1841,16 +1967,16 @@
       <c r="D104" s="9"/>
     </row>
     <row r="105">
-      <c r="A105" s="3">
-        <v>1.0</v>
+      <c r="A105" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="40">
+        <v>7</v>
+      </c>
+      <c r="C105" s="41">
         <v>12.0</v>
       </c>
-      <c r="D105" s="41">
+      <c r="D105" s="42">
         <v>8.0</v>
       </c>
     </row>
@@ -1861,16 +1987,16 @@
       <c r="D106" s="9"/>
     </row>
     <row r="107">
-      <c r="A107" s="3">
-        <v>14.0</v>
+      <c r="A107" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C107" s="40">
+        <v>40</v>
+      </c>
+      <c r="C107" s="41">
         <v>12.0</v>
       </c>
-      <c r="D107" s="41">
+      <c r="D107" s="42">
         <v>3.0</v>
       </c>
     </row>
@@ -1881,16 +2007,16 @@
       <c r="D108" s="9"/>
     </row>
     <row r="109">
-      <c r="A109" s="3">
-        <v>19.0</v>
+      <c r="A109" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C109" s="40">
+        <v>50</v>
+      </c>
+      <c r="C109" s="41">
         <v>12.0</v>
       </c>
-      <c r="D109" s="41">
+      <c r="D109" s="42">
         <v>2.0</v>
       </c>
     </row>
@@ -1901,16 +2027,16 @@
       <c r="D110" s="9"/>
     </row>
     <row r="111">
-      <c r="A111" s="3">
-        <v>2.0</v>
+      <c r="A111" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="40">
+        <v>12</v>
+      </c>
+      <c r="C111" s="41">
         <v>11.0</v>
       </c>
-      <c r="D111" s="41">
+      <c r="D111" s="42">
         <v>3.0</v>
       </c>
     </row>
@@ -1921,16 +2047,16 @@
       <c r="D112" s="9"/>
     </row>
     <row r="113">
-      <c r="A113" s="3">
-        <v>15.0</v>
+      <c r="A113" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C113" s="40">
+        <v>42</v>
+      </c>
+      <c r="C113" s="41">
         <v>10.0</v>
       </c>
-      <c r="D113" s="41">
+      <c r="D113" s="42">
         <v>3.0</v>
       </c>
     </row>
@@ -1941,27 +2067,92 @@
       <c r="D114" s="9"/>
     </row>
     <row r="115" ht="36.0" customHeight="1">
-      <c r="A115" s="42">
-        <v>4.0</v>
-      </c>
-      <c r="B115" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="44">
+      <c r="A115" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="45">
         <v>6.0</v>
       </c>
-      <c r="D115" s="45">
+      <c r="D115" s="46">
         <v>2.0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="33"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="33"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="203">
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="F85:F100"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="F101:F115"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="F77:F84"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
@@ -2041,6 +2232,20 @@
     <mergeCell ref="F53:F54"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="F56:F57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="A29:A30"/>
@@ -2075,93 +2280,17 @@
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A93:A94"/>
     <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
     <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
     <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A101:A102"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:C102"/>
     <mergeCell ref="D101:D102"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
